--- a/[source]/20151201_thanks/12月業績檔第一波(年終盛典)_提品表_1127.xlsx
+++ b/[source]/20151201_thanks/12月業績檔第一波(年終盛典)_提品表_1127.xlsx
@@ -958,10 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>★獨家贈BUFFALO PUS 500GB行動硬碟★BUFFALO巴比祿 WXR-1900DHP AC1900雙頻無線分享器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生活家電</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,6 +967,10 @@
   </si>
   <si>
     <t>【購物季下殺五折】Philips Norelco series 9000 乾濕兩用 刮鬍刀 S9311/84SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★獨家贈BUFFALO PUS 500GB行動硬碟★BUFFALO巴比祿 WXR-1900DHP AC1900雙頻無線分享器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,9 +1783,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1819,86 +1816,95 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2314,8 +2320,8 @@
   </sheetPr>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2345,11 +2351,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
       <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>18</v>
@@ -2357,25 +2363,25 @@
       <c r="G1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="176"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="166"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
       <c r="E2" s="39"/>
       <c r="F2" s="11" t="s">
         <v>19</v>
@@ -2383,25 +2389,25 @@
       <c r="G2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="161"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="20"/>
       <c r="F3" s="12" t="s">
         <v>149</v>
@@ -2409,70 +2415,70 @@
       <c r="G3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="170" t="s">
+      <c r="H4" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="171"/>
-      <c r="J4" s="167" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="167" t="s">
+      <c r="K4" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="167"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="168"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="174"/>
       <c r="K5" s="38" t="s">
         <v>4</v>
       </c>
@@ -2492,8 +2498,8 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" s="152" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
+    <row r="6" spans="1:18" s="151" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
       <c r="B6" s="106">
         <v>1</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="108"/>
-      <c r="F6" s="109">
+      <c r="F6" s="55">
         <v>494712</v>
       </c>
       <c r="G6" s="110"/>
@@ -2525,12 +2531,12 @@
         <v>20</v>
       </c>
       <c r="N6" s="113"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="106">
         <v>2</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="123"/>
-      <c r="F7" s="122">
+      <c r="F7" s="154">
         <v>492534</v>
       </c>
       <c r="G7" s="122"/>
@@ -2562,11 +2568,11 @@
         <v>12</v>
       </c>
       <c r="N7" s="126"/>
-      <c r="O7" s="153"/>
+      <c r="O7" s="152"/>
       <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="106">
         <v>3</v>
       </c>
@@ -2577,7 +2583,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="108"/>
-      <c r="F8" s="109">
+      <c r="F8" s="55">
         <v>491639</v>
       </c>
       <c r="G8" s="110"/>
@@ -2598,13 +2604,13 @@
         <v>12</v>
       </c>
       <c r="N8" s="109"/>
-      <c r="O8" s="153"/>
+      <c r="O8" s="152"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="154">
+      <c r="A9" s="156"/>
+      <c r="B9" s="153">
         <v>4</v>
       </c>
       <c r="C9" s="107" t="s">
@@ -2614,7 +2620,7 @@
         <v>215</v>
       </c>
       <c r="E9" s="123"/>
-      <c r="F9" s="122">
+      <c r="F9" s="154">
         <v>495489</v>
       </c>
       <c r="G9" s="122"/>
@@ -2635,27 +2641,27 @@
         <v>10</v>
       </c>
       <c r="N9" s="126"/>
-      <c r="O9" s="153"/>
+      <c r="O9" s="152"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="106">
         <v>5</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155">
+      <c r="E10" s="153"/>
+      <c r="F10" s="181">
         <v>502656</v>
       </c>
       <c r="G10" s="118"/>
       <c r="H10" s="110"/>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="146" t="s">
         <v>220</v>
       </c>
       <c r="J10" s="106">
@@ -2676,7 +2682,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="121">
         <v>6</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="108"/>
-      <c r="F11" s="109">
+      <c r="F11" s="55">
         <v>500876</v>
       </c>
       <c r="G11" s="110"/>
@@ -2714,7 +2720,7 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
+      <c r="A12" s="156"/>
       <c r="B12" s="121">
         <v>7</v>
       </c>
@@ -2722,10 +2728,10 @@
         <v>213</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="123"/>
-      <c r="F12" s="122">
+      <c r="F12" s="154">
         <v>502747</v>
       </c>
       <c r="G12" s="122"/>
@@ -2752,7 +2758,7 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="121">
         <v>8</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="108"/>
-      <c r="F13" s="114">
+      <c r="F13" s="182">
         <v>500046</v>
       </c>
       <c r="G13" s="106"/>
@@ -2792,7 +2798,7 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="155" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="128">
@@ -2805,7 +2811,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="130"/>
-      <c r="F14" s="131">
+      <c r="F14" s="55">
         <v>77078</v>
       </c>
       <c r="G14" s="132"/>
@@ -2832,7 +2838,7 @@
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
+      <c r="A15" s="156"/>
       <c r="B15" s="128">
         <v>2</v>
       </c>
@@ -2843,12 +2849,12 @@
         <v>36</v>
       </c>
       <c r="E15" s="142"/>
-      <c r="F15" s="143">
+      <c r="F15" s="183">
         <v>502551</v>
       </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="146" t="s">
+      <c r="G15" s="143"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="145" t="s">
         <v>217</v>
       </c>
       <c r="J15" s="128">
@@ -2869,7 +2875,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
+      <c r="A16" s="156"/>
       <c r="B16" s="128">
         <v>3</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>54</v>
       </c>
       <c r="E16" s="130"/>
-      <c r="F16" s="131">
+      <c r="F16" s="55">
         <v>499896</v>
       </c>
       <c r="G16" s="132"/>
@@ -2906,7 +2912,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="128">
         <v>4</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="130"/>
-      <c r="F17" s="131">
+      <c r="F17" s="55">
         <v>497904</v>
       </c>
       <c r="G17" s="132"/>
@@ -2943,7 +2949,7 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
+      <c r="A18" s="156"/>
       <c r="B18" s="128">
         <v>5</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="130"/>
-      <c r="F18" s="131">
+      <c r="F18" s="55">
         <v>503116</v>
       </c>
       <c r="G18" s="132"/>
@@ -2980,7 +2986,7 @@
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="128">
         <v>6</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>58</v>
       </c>
       <c r="E19" s="130"/>
-      <c r="F19" s="131">
+      <c r="F19" s="55">
         <v>500138</v>
       </c>
       <c r="G19" s="132"/>
@@ -3017,7 +3023,7 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="128">
         <v>7</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>96</v>
       </c>
       <c r="E20" s="130"/>
-      <c r="F20" s="134">
+      <c r="F20" s="56">
         <v>501205</v>
       </c>
       <c r="G20" s="132"/>
@@ -3056,7 +3062,7 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:18" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="128">
         <v>8</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="130"/>
-      <c r="F21" s="131">
+      <c r="F21" s="55">
         <v>490030</v>
       </c>
       <c r="G21" s="132"/>
@@ -3092,7 +3098,7 @@
       <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="128">
         <v>9</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>114</v>
       </c>
       <c r="E22" s="130"/>
-      <c r="F22" s="134">
+      <c r="F22" s="56">
         <v>502752</v>
       </c>
       <c r="G22" s="132"/>
@@ -3129,7 +3135,7 @@
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="128">
         <v>10</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="130"/>
-      <c r="F23" s="131">
+      <c r="F23" s="55">
         <v>476430</v>
       </c>
       <c r="G23" s="132"/>
@@ -3168,7 +3174,7 @@
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="128">
         <v>11</v>
       </c>
@@ -3179,13 +3185,13 @@
         <v>59</v>
       </c>
       <c r="E24" s="142"/>
-      <c r="F24" s="143">
+      <c r="F24" s="183">
         <v>500751</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="148" t="s">
-        <v>223</v>
+      <c r="G24" s="143"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="147" t="s">
+        <v>226</v>
       </c>
       <c r="J24" s="128">
         <v>7690</v>
@@ -3207,7 +3213,7 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="128">
         <v>12</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>59</v>
       </c>
       <c r="E25" s="130"/>
-      <c r="F25" s="134">
+      <c r="F25" s="56">
         <v>502715</v>
       </c>
       <c r="G25" s="132"/>
@@ -3247,7 +3253,7 @@
       <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="155" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="30">
@@ -3287,7 +3293,7 @@
       <c r="P26" s="54"/>
     </row>
     <row r="27" spans="1:18" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="157"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="30">
         <v>2</v>
       </c>
@@ -3325,7 +3331,7 @@
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="157"/>
+      <c r="A28" s="156"/>
       <c r="B28" s="30">
         <v>3</v>
       </c>
@@ -3361,7 +3367,7 @@
       <c r="P28" s="16"/>
     </row>
     <row r="29" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="157"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="26">
         <v>4</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="58">
+      <c r="F29" s="55">
         <v>486105</v>
       </c>
       <c r="G29" s="25"/>
@@ -3383,7 +3389,7 @@
       <c r="J29" s="26">
         <v>4800</v>
       </c>
-      <c r="K29" s="149">
+      <c r="K29" s="148">
         <f>L29*0.91</f>
         <v>3548.09</v>
       </c>
@@ -3399,7 +3405,7 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="157"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="26">
         <v>5</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="27"/>
-      <c r="F30" s="58">
+      <c r="F30" s="55">
         <v>432857</v>
       </c>
       <c r="G30" s="25"/>
@@ -3435,7 +3441,7 @@
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
+      <c r="A31" s="156"/>
       <c r="B31" s="36">
         <v>6</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>34</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="60">
+      <c r="F31" s="55">
         <v>474510</v>
       </c>
       <c r="G31" s="9"/>
@@ -3471,7 +3477,7 @@
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
+      <c r="A32" s="156"/>
       <c r="B32" s="26">
         <v>7</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>34</v>
       </c>
       <c r="E32" s="27"/>
-      <c r="F32" s="58">
+      <c r="F32" s="55">
         <v>490694</v>
       </c>
       <c r="G32" s="25"/>
@@ -3507,7 +3513,7 @@
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="157"/>
+      <c r="A33" s="156"/>
       <c r="B33" s="26">
         <v>8</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>34</v>
       </c>
       <c r="E33" s="27"/>
-      <c r="F33" s="58">
+      <c r="F33" s="55">
         <v>474270</v>
       </c>
       <c r="G33" s="25"/>
@@ -3544,7 +3550,7 @@
       <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="157"/>
+      <c r="A34" s="156"/>
       <c r="B34" s="26">
         <v>9</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>34</v>
       </c>
       <c r="E34" s="27"/>
-      <c r="F34" s="58">
+      <c r="F34" s="55">
         <v>485657</v>
       </c>
       <c r="G34" s="25"/>
@@ -3581,7 +3587,7 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="158"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="26">
         <v>10</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="21"/>
-      <c r="F35" s="64">
+      <c r="F35" s="55">
         <v>481999</v>
       </c>
       <c r="G35" s="9"/>
@@ -3618,7 +3624,7 @@
       <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="155" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="40">
@@ -3631,7 +3637,7 @@
         <v>36</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="50">
+      <c r="F36" s="55">
         <v>113468</v>
       </c>
       <c r="G36" s="42"/>
@@ -3657,7 +3663,7 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="157"/>
+      <c r="A37" s="156"/>
       <c r="B37" s="40">
         <v>2</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="41"/>
-      <c r="F37" s="50">
+      <c r="F37" s="55">
         <v>113437</v>
       </c>
       <c r="G37" s="42"/>
@@ -3694,7 +3700,7 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="157"/>
+      <c r="A38" s="156"/>
       <c r="B38" s="40">
         <v>3</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="41"/>
-      <c r="F38" s="50">
+      <c r="F38" s="55">
         <v>450343</v>
       </c>
       <c r="G38" s="42"/>
@@ -3731,7 +3737,7 @@
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="157"/>
+      <c r="A39" s="156"/>
       <c r="B39" s="26">
         <v>4</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="27"/>
-      <c r="F39" s="58">
+      <c r="F39" s="55">
         <v>120044</v>
       </c>
       <c r="G39" s="25"/>
@@ -3768,7 +3774,7 @@
       <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="157"/>
+      <c r="A40" s="156"/>
       <c r="B40" s="26">
         <v>5</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="58">
+      <c r="F40" s="55">
         <v>113471</v>
       </c>
       <c r="G40" s="25"/>
@@ -3805,7 +3811,7 @@
       <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="157"/>
+      <c r="A41" s="156"/>
       <c r="B41" s="36">
         <v>6</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="21"/>
-      <c r="F41" s="60">
+      <c r="F41" s="55">
         <v>113458</v>
       </c>
       <c r="G41" s="9"/>
@@ -3842,7 +3848,7 @@
       <c r="R41" s="6"/>
     </row>
     <row r="42" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="157"/>
+      <c r="A42" s="156"/>
       <c r="B42" s="26">
         <v>7</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="27"/>
-      <c r="F42" s="58">
+      <c r="F42" s="55">
         <v>113441</v>
       </c>
       <c r="G42" s="25"/>
@@ -3879,7 +3885,7 @@
       <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="157"/>
+      <c r="A43" s="156"/>
       <c r="B43" s="26">
         <v>8</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="27"/>
-      <c r="F43" s="58">
+      <c r="F43" s="55">
         <v>113475</v>
       </c>
       <c r="G43" s="25"/>
@@ -3916,7 +3922,7 @@
       <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="157"/>
+      <c r="A44" s="156"/>
       <c r="B44" s="26">
         <v>9</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="E44" s="27"/>
-      <c r="F44" s="58">
+      <c r="F44" s="55">
         <v>128804</v>
       </c>
       <c r="G44" s="25"/>
@@ -3953,7 +3959,7 @@
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="158"/>
+      <c r="A45" s="157"/>
       <c r="B45" s="26">
         <v>10</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="21"/>
-      <c r="F45" s="64">
+      <c r="F45" s="55">
         <v>450339</v>
       </c>
       <c r="G45" s="9"/>
@@ -3990,7 +3996,7 @@
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="155" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="30">
@@ -4029,7 +4035,7 @@
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="157"/>
+      <c r="A47" s="156"/>
       <c r="B47" s="30">
         <v>2</v>
       </c>
@@ -4066,7 +4072,7 @@
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="157"/>
+      <c r="A48" s="156"/>
       <c r="B48" s="30">
         <v>3</v>
       </c>
@@ -4083,7 +4089,7 @@
       <c r="G48" s="31"/>
       <c r="H48" s="55"/>
       <c r="I48" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J48" s="30">
         <v>28000</v>
@@ -4103,7 +4109,7 @@
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="157"/>
+      <c r="A49" s="156"/>
       <c r="B49" s="26">
         <v>4</v>
       </c>
@@ -4114,7 +4120,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="27"/>
-      <c r="F49" s="58">
+      <c r="F49" s="55">
         <v>431759</v>
       </c>
       <c r="G49" s="25"/>
@@ -4140,7 +4146,7 @@
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="157"/>
+      <c r="A50" s="156"/>
       <c r="B50" s="26">
         <v>5</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="E50" s="27"/>
-      <c r="F50" s="58">
+      <c r="F50" s="55">
         <v>432194</v>
       </c>
       <c r="G50" s="25"/>
@@ -4177,7 +4183,7 @@
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="157"/>
+      <c r="A51" s="156"/>
       <c r="B51" s="36">
         <v>6</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>39</v>
       </c>
       <c r="E51" s="21"/>
-      <c r="F51" s="64">
+      <c r="F51" s="55">
         <v>433096</v>
       </c>
       <c r="G51" s="9"/>
@@ -4214,7 +4220,7 @@
       <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="157"/>
+      <c r="A52" s="156"/>
       <c r="B52" s="26">
         <v>7</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>39</v>
       </c>
       <c r="E52" s="27"/>
-      <c r="F52" s="58">
+      <c r="F52" s="55">
         <v>482751</v>
       </c>
       <c r="G52" s="25"/>
@@ -4251,7 +4257,7 @@
       <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="157"/>
+      <c r="A53" s="156"/>
       <c r="B53" s="26">
         <v>8</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>39</v>
       </c>
       <c r="E53" s="27"/>
-      <c r="F53" s="58">
+      <c r="F53" s="55">
         <v>113177</v>
       </c>
       <c r="G53" s="25"/>
@@ -4288,7 +4294,7 @@
       <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="157"/>
+      <c r="A54" s="156"/>
       <c r="B54" s="26">
         <v>9</v>
       </c>
@@ -4299,13 +4305,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="27"/>
-      <c r="F54" s="58">
+      <c r="F54" s="55">
         <v>498128</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="24"/>
       <c r="I54" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J54" s="26">
         <v>28000</v>
@@ -4325,7 +4331,7 @@
       <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="158"/>
+      <c r="A55" s="157"/>
       <c r="B55" s="26">
         <v>10</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>47</v>
       </c>
       <c r="E55" s="21"/>
-      <c r="F55" s="64">
+      <c r="F55" s="55">
         <v>97496</v>
       </c>
       <c r="G55" s="9"/>
@@ -4362,7 +4368,7 @@
       <c r="R55" s="6"/>
     </row>
     <row r="56" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="156" t="s">
+      <c r="A56" s="155" t="s">
         <v>40</v>
       </c>
       <c r="B56" s="30">
@@ -4401,7 +4407,7 @@
       <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="157"/>
+      <c r="A57" s="156"/>
       <c r="B57" s="30">
         <v>2</v>
       </c>
@@ -4438,7 +4444,7 @@
       <c r="R57" s="6"/>
     </row>
     <row r="58" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="157"/>
+      <c r="A58" s="156"/>
       <c r="B58" s="30">
         <v>3</v>
       </c>
@@ -4475,7 +4481,7 @@
       <c r="R58" s="6"/>
     </row>
     <row r="59" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="157"/>
+      <c r="A59" s="156"/>
       <c r="B59" s="26">
         <v>4</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>68</v>
       </c>
       <c r="E59" s="27"/>
-      <c r="F59" s="58">
+      <c r="F59" s="55">
         <v>74513</v>
       </c>
       <c r="G59" s="25"/>
@@ -4512,7 +4518,7 @@
       <c r="R59" s="6"/>
     </row>
     <row r="60" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="157"/>
+      <c r="A60" s="156"/>
       <c r="B60" s="26">
         <v>5</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>68</v>
       </c>
       <c r="E60" s="27"/>
-      <c r="F60" s="58">
+      <c r="F60" s="55">
         <v>499534</v>
       </c>
       <c r="G60" s="25"/>
@@ -4549,7 +4555,7 @@
       <c r="R60" s="6"/>
     </row>
     <row r="61" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="157"/>
+      <c r="A61" s="156"/>
       <c r="B61" s="36">
         <v>6</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>63</v>
       </c>
       <c r="E61" s="21"/>
-      <c r="F61" s="60">
+      <c r="F61" s="55">
         <v>493801</v>
       </c>
       <c r="G61" s="9"/>
@@ -4586,7 +4592,7 @@
       <c r="R61" s="6"/>
     </row>
     <row r="62" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="157"/>
+      <c r="A62" s="156"/>
       <c r="B62" s="26">
         <v>7</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>63</v>
       </c>
       <c r="E62" s="27"/>
-      <c r="F62" s="58">
+      <c r="F62" s="55">
         <v>439717</v>
       </c>
       <c r="G62" s="25"/>
@@ -4623,7 +4629,7 @@
       <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="157"/>
+      <c r="A63" s="156"/>
       <c r="B63" s="26">
         <v>8</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>63</v>
       </c>
       <c r="E63" s="27"/>
-      <c r="F63" s="58">
+      <c r="F63" s="55">
         <v>440223</v>
       </c>
       <c r="G63" s="25"/>
@@ -4660,7 +4666,7 @@
       <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="157"/>
+      <c r="A64" s="156"/>
       <c r="B64" s="26">
         <v>9</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>63</v>
       </c>
       <c r="E64" s="27"/>
-      <c r="F64" s="58">
+      <c r="F64" s="55">
         <v>440164</v>
       </c>
       <c r="G64" s="25"/>
@@ -4697,7 +4703,7 @@
       <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="158"/>
+      <c r="A65" s="157"/>
       <c r="B65" s="26">
         <v>10</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
-      <c r="F65" s="64">
+      <c r="F65" s="55">
         <v>469252</v>
       </c>
       <c r="G65" s="9"/>
@@ -4734,7 +4740,7 @@
       <c r="R65" s="6"/>
     </row>
     <row r="66" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="155" t="s">
         <v>41</v>
       </c>
       <c r="B66" s="40">
@@ -4747,7 +4753,7 @@
         <v>42</v>
       </c>
       <c r="E66" s="41"/>
-      <c r="F66" s="50">
+      <c r="F66" s="55">
         <v>474865</v>
       </c>
       <c r="G66" s="42"/>
@@ -4773,7 +4779,7 @@
       <c r="R66" s="6"/>
     </row>
     <row r="67" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="157"/>
+      <c r="A67" s="156"/>
       <c r="B67" s="40">
         <v>2</v>
       </c>
@@ -4784,7 +4790,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="41"/>
-      <c r="F67" s="50">
+      <c r="F67" s="55">
         <v>496124</v>
       </c>
       <c r="G67" s="42"/>
@@ -4810,7 +4816,7 @@
       <c r="R67" s="6"/>
     </row>
     <row r="68" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="157"/>
+      <c r="A68" s="156"/>
       <c r="B68" s="40">
         <v>3</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>42</v>
       </c>
       <c r="E68" s="41"/>
-      <c r="F68" s="50">
+      <c r="F68" s="55">
         <v>493966</v>
       </c>
       <c r="G68" s="42"/>
@@ -4847,7 +4853,7 @@
       <c r="R68" s="6"/>
     </row>
     <row r="69" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="157"/>
+      <c r="A69" s="156"/>
       <c r="B69" s="26">
         <v>4</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>42</v>
       </c>
       <c r="E69" s="27"/>
-      <c r="F69" s="58">
+      <c r="F69" s="55">
         <v>474989</v>
       </c>
       <c r="G69" s="25"/>
@@ -4884,7 +4890,7 @@
       <c r="R69" s="6"/>
     </row>
     <row r="70" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="157"/>
+      <c r="A70" s="156"/>
       <c r="B70" s="26">
         <v>5</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>42</v>
       </c>
       <c r="E70" s="27"/>
-      <c r="F70" s="58">
+      <c r="F70" s="55">
         <v>499374</v>
       </c>
       <c r="G70" s="25"/>
@@ -4921,7 +4927,7 @@
       <c r="R70" s="6"/>
     </row>
     <row r="71" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="157"/>
+      <c r="A71" s="156"/>
       <c r="B71" s="36">
         <v>6</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>42</v>
       </c>
       <c r="E71" s="21"/>
-      <c r="F71" s="60">
+      <c r="F71" s="55">
         <v>499347</v>
       </c>
       <c r="G71" s="9"/>
@@ -4958,7 +4964,7 @@
       <c r="R71" s="6"/>
     </row>
     <row r="72" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="157"/>
+      <c r="A72" s="156"/>
       <c r="B72" s="26">
         <v>7</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>42</v>
       </c>
       <c r="E72" s="27"/>
-      <c r="F72" s="58">
+      <c r="F72" s="55">
         <v>499353</v>
       </c>
       <c r="G72" s="25"/>
@@ -4995,7 +5001,7 @@
       <c r="R72" s="6"/>
     </row>
     <row r="73" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="157"/>
+      <c r="A73" s="156"/>
       <c r="B73" s="26">
         <v>8</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>42</v>
       </c>
       <c r="E73" s="27"/>
-      <c r="F73" s="58">
+      <c r="F73" s="55">
         <v>496879</v>
       </c>
       <c r="G73" s="25"/>
@@ -5032,7 +5038,7 @@
       <c r="R73" s="6"/>
     </row>
     <row r="74" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="157"/>
+      <c r="A74" s="156"/>
       <c r="B74" s="26">
         <v>9</v>
       </c>
@@ -5043,7 +5049,7 @@
         <v>42</v>
       </c>
       <c r="E74" s="27"/>
-      <c r="F74" s="58">
+      <c r="F74" s="55">
         <v>498276</v>
       </c>
       <c r="G74" s="25"/>
@@ -5069,7 +5075,7 @@
       <c r="R74" s="6"/>
     </row>
     <row r="75" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="158"/>
+      <c r="A75" s="157"/>
       <c r="B75" s="26">
         <v>10</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>42</v>
       </c>
       <c r="E75" s="21"/>
-      <c r="F75" s="64">
+      <c r="F75" s="55">
         <v>458396</v>
       </c>
       <c r="G75" s="9"/>
@@ -5106,7 +5112,7 @@
       <c r="R75" s="6"/>
     </row>
     <row r="76" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="156" t="s">
+      <c r="A76" s="155" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="30">
@@ -5145,7 +5151,7 @@
       <c r="R76" s="6"/>
     </row>
     <row r="77" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="157"/>
+      <c r="A77" s="156"/>
       <c r="B77" s="30">
         <v>2</v>
       </c>
@@ -5182,7 +5188,7 @@
       <c r="R77" s="6"/>
     </row>
     <row r="78" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="157"/>
+      <c r="A78" s="156"/>
       <c r="B78" s="30">
         <v>3</v>
       </c>
@@ -5219,7 +5225,7 @@
       <c r="R78" s="6"/>
     </row>
     <row r="79" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="157"/>
+      <c r="A79" s="156"/>
       <c r="B79" s="26">
         <v>4</v>
       </c>
@@ -5256,7 +5262,7 @@
       <c r="R79" s="6"/>
     </row>
     <row r="80" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="157"/>
+      <c r="A80" s="156"/>
       <c r="B80" s="26">
         <v>5</v>
       </c>
@@ -5293,7 +5299,7 @@
       <c r="R80" s="6"/>
     </row>
     <row r="81" spans="1:18" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="157"/>
+      <c r="A81" s="156"/>
       <c r="B81" s="36">
         <v>6</v>
       </c>
@@ -5328,7 +5334,7 @@
       <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:18" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="157"/>
+      <c r="A82" s="156"/>
       <c r="B82" s="26">
         <v>7</v>
       </c>
@@ -5363,7 +5369,7 @@
       <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="157"/>
+      <c r="A83" s="156"/>
       <c r="B83" s="26">
         <v>8</v>
       </c>
@@ -5404,7 +5410,7 @@
       <c r="R83" s="6"/>
     </row>
     <row r="84" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="157"/>
+      <c r="A84" s="156"/>
       <c r="B84" s="26">
         <v>9</v>
       </c>
@@ -5443,7 +5449,7 @@
       <c r="R84" s="6"/>
     </row>
     <row r="85" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="158"/>
+      <c r="A85" s="157"/>
       <c r="B85" s="26">
         <v>10</v>
       </c>
@@ -5482,7 +5488,7 @@
       <c r="R85" s="6"/>
     </row>
     <row r="86" spans="1:18" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="156" t="s">
+      <c r="A86" s="155" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="40">
@@ -5524,7 +5530,7 @@
       <c r="R86" s="6"/>
     </row>
     <row r="87" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="157"/>
+      <c r="A87" s="156"/>
       <c r="B87" s="40">
         <v>2</v>
       </c>
@@ -5563,7 +5569,7 @@
       <c r="R87" s="6"/>
     </row>
     <row r="88" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="157"/>
+      <c r="A88" s="156"/>
       <c r="B88" s="40">
         <v>3</v>
       </c>
@@ -5602,7 +5608,7 @@
       <c r="R88" s="6"/>
     </row>
     <row r="89" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="157"/>
+      <c r="A89" s="156"/>
       <c r="B89" s="26">
         <v>4</v>
       </c>
@@ -5641,7 +5647,7 @@
       <c r="R89" s="6"/>
     </row>
     <row r="90" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="157"/>
+      <c r="A90" s="156"/>
       <c r="B90" s="26">
         <v>5</v>
       </c>
@@ -5680,7 +5686,7 @@
       <c r="R90" s="6"/>
     </row>
     <row r="91" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="157"/>
+      <c r="A91" s="156"/>
       <c r="B91" s="36">
         <v>6</v>
       </c>
@@ -5719,7 +5725,7 @@
       <c r="R91" s="6"/>
     </row>
     <row r="92" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="157"/>
+      <c r="A92" s="156"/>
       <c r="B92" s="26">
         <v>7</v>
       </c>
@@ -5758,7 +5764,7 @@
       <c r="R92" s="6"/>
     </row>
     <row r="93" spans="1:18" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="157"/>
+      <c r="A93" s="156"/>
       <c r="B93" s="26">
         <v>8</v>
       </c>
@@ -5797,7 +5803,7 @@
       <c r="R93" s="6"/>
     </row>
     <row r="94" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="157"/>
+      <c r="A94" s="156"/>
       <c r="B94" s="26">
         <v>9</v>
       </c>
@@ -5836,7 +5842,7 @@
       <c r="R94" s="6"/>
     </row>
     <row r="95" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="158"/>
+      <c r="A95" s="157"/>
       <c r="B95" s="26">
         <v>10</v>
       </c>
@@ -5875,7 +5881,7 @@
       <c r="R95" s="6"/>
     </row>
     <row r="96" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="156" t="s">
+      <c r="A96" s="155" t="s">
         <v>45</v>
       </c>
       <c r="B96" s="30">
@@ -5914,7 +5920,7 @@
       <c r="R96" s="6"/>
     </row>
     <row r="97" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="157"/>
+      <c r="A97" s="156"/>
       <c r="B97" s="30">
         <v>2</v>
       </c>
@@ -5951,7 +5957,7 @@
       <c r="R97" s="6"/>
     </row>
     <row r="98" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="157"/>
+      <c r="A98" s="156"/>
       <c r="B98" s="30">
         <v>3</v>
       </c>
@@ -5988,7 +5994,7 @@
       <c r="R98" s="6"/>
     </row>
     <row r="99" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="157"/>
+      <c r="A99" s="156"/>
       <c r="B99" s="26">
         <v>4</v>
       </c>
@@ -6025,7 +6031,7 @@
       <c r="R99" s="6"/>
     </row>
     <row r="100" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="157"/>
+      <c r="A100" s="156"/>
       <c r="B100" s="26">
         <v>5</v>
       </c>
@@ -6062,7 +6068,7 @@
       <c r="R100" s="6"/>
     </row>
     <row r="101" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="157"/>
+      <c r="A101" s="156"/>
       <c r="B101" s="36">
         <v>6</v>
       </c>
@@ -6099,7 +6105,7 @@
       <c r="R101" s="6"/>
     </row>
     <row r="102" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="157"/>
+      <c r="A102" s="156"/>
       <c r="B102" s="26">
         <v>7</v>
       </c>
@@ -6136,7 +6142,7 @@
       <c r="R102" s="6"/>
     </row>
     <row r="103" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="157"/>
+      <c r="A103" s="156"/>
       <c r="B103" s="26">
         <v>8</v>
       </c>
@@ -6173,7 +6179,7 @@
       <c r="R103" s="6"/>
     </row>
     <row r="104" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="157"/>
+      <c r="A104" s="156"/>
       <c r="B104" s="26">
         <v>9</v>
       </c>
@@ -6210,7 +6216,7 @@
       <c r="R104" s="6"/>
     </row>
     <row r="105" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="158"/>
+      <c r="A105" s="157"/>
       <c r="B105" s="26">
         <v>10</v>
       </c>
@@ -6247,7 +6253,7 @@
       <c r="R105" s="6"/>
     </row>
     <row r="106" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="156" t="s">
+      <c r="A106" s="155" t="s">
         <v>50</v>
       </c>
       <c r="B106" s="40">
@@ -6288,7 +6294,7 @@
       <c r="R106" s="6"/>
     </row>
     <row r="107" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="157"/>
+      <c r="A107" s="156"/>
       <c r="B107" s="40">
         <v>2</v>
       </c>
@@ -6327,7 +6333,7 @@
       <c r="R107" s="6"/>
     </row>
     <row r="108" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="157"/>
+      <c r="A108" s="156"/>
       <c r="B108" s="40">
         <v>3</v>
       </c>
@@ -6364,7 +6370,7 @@
       <c r="R108" s="6"/>
     </row>
     <row r="109" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="157"/>
+      <c r="A109" s="156"/>
       <c r="B109" s="26">
         <v>4</v>
       </c>
@@ -6403,7 +6409,7 @@
       <c r="R109" s="6"/>
     </row>
     <row r="110" spans="1:18" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="157"/>
+      <c r="A110" s="156"/>
       <c r="B110" s="26">
         <v>5</v>
       </c>
@@ -6442,7 +6448,7 @@
       <c r="R110" s="6"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="157"/>
+      <c r="A111" s="156"/>
       <c r="B111" s="36">
         <v>6</v>
       </c>
@@ -6479,7 +6485,7 @@
       <c r="O111" s="36"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="157"/>
+      <c r="A112" s="156"/>
       <c r="B112" s="26">
         <v>7</v>
       </c>
@@ -6516,7 +6522,7 @@
       <c r="O112" s="62"/>
     </row>
     <row r="113" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="157"/>
+      <c r="A113" s="156"/>
       <c r="B113" s="26">
         <v>8</v>
       </c>
@@ -6553,7 +6559,7 @@
       <c r="O113" s="62"/>
     </row>
     <row r="114" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="157"/>
+      <c r="A114" s="156"/>
       <c r="B114" s="26">
         <v>9</v>
       </c>
@@ -6588,7 +6594,7 @@
       <c r="O114" s="26"/>
     </row>
     <row r="115" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="158"/>
+      <c r="A115" s="157"/>
       <c r="B115" s="26">
         <v>10</v>
       </c>
@@ -6623,7 +6629,7 @@
       <c r="O115" s="67"/>
     </row>
     <row r="116" spans="1:15" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="156" t="s">
+      <c r="A116" s="155" t="s">
         <v>51</v>
       </c>
       <c r="B116" s="30">
@@ -6664,7 +6670,7 @@
       </c>
     </row>
     <row r="117" spans="1:15" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="157"/>
+      <c r="A117" s="156"/>
       <c r="B117" s="30">
         <v>2</v>
       </c>
@@ -6703,7 +6709,7 @@
       </c>
     </row>
     <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="157"/>
+      <c r="A118" s="156"/>
       <c r="B118" s="30">
         <v>3</v>
       </c>
@@ -6740,7 +6746,7 @@
       <c r="O118" s="100"/>
     </row>
     <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="157"/>
+      <c r="A119" s="156"/>
       <c r="B119" s="26">
         <v>4</v>
       </c>
@@ -6777,7 +6783,7 @@
       <c r="O119" s="26"/>
     </row>
     <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="157"/>
+      <c r="A120" s="156"/>
       <c r="B120" s="26">
         <v>5</v>
       </c>
@@ -6814,7 +6820,7 @@
       <c r="O120" s="26"/>
     </row>
     <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="157"/>
+      <c r="A121" s="156"/>
       <c r="B121" s="36">
         <v>6</v>
       </c>
@@ -6850,7 +6856,7 @@
       <c r="O121" s="36"/>
     </row>
     <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="157"/>
+      <c r="A122" s="156"/>
       <c r="B122" s="26">
         <v>7</v>
       </c>
@@ -6887,7 +6893,7 @@
       <c r="O122" s="62"/>
     </row>
     <row r="123" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="157"/>
+      <c r="A123" s="156"/>
       <c r="B123" s="26">
         <v>8</v>
       </c>
@@ -6922,7 +6928,7 @@
       <c r="O123" s="62"/>
     </row>
     <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="157"/>
+      <c r="A124" s="156"/>
       <c r="B124" s="26">
         <v>9</v>
       </c>
@@ -6957,7 +6963,7 @@
       <c r="O124" s="26"/>
     </row>
     <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="158"/>
+      <c r="A125" s="157"/>
       <c r="B125" s="26">
         <v>10</v>
       </c>
@@ -6993,12 +6999,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="H2:O2"/>
@@ -7008,19 +7021,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
